--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/tkzhang_connect_ust_hk/Documents/26 Spring/MECH3907/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/tkzhang_connect_ust_hk/Documents/26 Spring/MECH3907/2026-MECH3907-Gp7-TTB-shooter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="11_C05832F84A9D4BDE4F2273C8C3656160CE96F8EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43006F14-F593-4A47-B6FC-A8904118FBB6}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="11_C05832F84A9D4BDE4F2273C8C3656160CE96F8EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67ABB5CA-222B-4E9B-8A51-24014EC83669}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,11 +267,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="_-[$CNY]\ * #,##0.00_-;\-[$CNY]\ * #,##0.00_-;_-[$CNY]\ * &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="167" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_-[$$-404]* #,##0.00_-;\-[$$-404]* #,##0.00_-;_-[$$-404]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_-[$CNY]\ * #,##0.00_-;\-[$CNY]\ * #,##0.00_-;_-[$CNY]\ * &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="179" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_-[$$-404]* #,##0.00_-;\-[$$-404]* #,##0.00_-;_-[$$-404]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -386,7 +386,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +409,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -578,14 +584,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -597,7 +603,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -609,13 +615,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -627,7 +633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,10 +654,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,6 +672,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,31 +705,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -920,28 +932,28 @@
   </sheetPr>
   <dimension ref="A1:U1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.109375" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="21" width="8.85546875" customWidth="1"/>
+    <col min="12" max="21" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="38"/>
+    <row r="1" spans="1:21" ht="19.95" customHeight="1">
+      <c r="A1" s="29"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -963,26 +975,26 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="31.15" customHeight="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:21" ht="31.2" customHeight="1">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="28" t="s">
@@ -1002,14 +1014,14 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="19.899999999999999" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="34"/>
+    <row r="3" spans="1:21" ht="19.95" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1027,11 +1039,11 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="4" spans="1:21" ht="19.95" customHeight="1">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -1048,7 +1060,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="16">
-        <f>IF(F4 = H$3,$E4*$G4,)</f>
+        <f t="shared" ref="H4:H23" si="0">IF(F4 = H$3,$E4*$G4,)</f>
         <v>99</v>
       </c>
       <c r="I4" s="1"/>
@@ -1065,11 +1077,11 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="5" spans="1:21" ht="19.95" customHeight="1">
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -1086,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="16">
-        <f>IF(F5 = H$3,$E5*$G5,)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="I5" s="4"/>
@@ -1103,11 +1115,11 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="6" spans="1:21" ht="19.95" customHeight="1">
       <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -1124,7 +1136,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="16">
-        <f>IF(F6 = H$3,$E6*$G6,)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I6" s="1"/>
@@ -1141,11 +1153,11 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="7" spans="1:21" ht="19.95" customHeight="1">
       <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -1162,7 +1174,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="16">
-        <f>IF(F7 = H$3,$E7*$G7,)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="I7" s="4"/>
@@ -1179,11 +1191,11 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="8" spans="1:21" ht="19.95" customHeight="1">
       <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -1200,7 +1212,7 @@
         <v>5.5</v>
       </c>
       <c r="H8" s="16">
-        <f>IF(F8 = H$3,$E8*$G8,)</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="I8" s="7"/>
@@ -1219,11 +1231,11 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="9" spans="1:21" ht="19.95" customHeight="1">
       <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -1240,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="16">
-        <f>IF(F9 = H$3,$E9*$G9,)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I9" s="9"/>
@@ -1257,11 +1269,11 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="10" spans="1:21" ht="19.95" customHeight="1">
       <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -1278,7 +1290,7 @@
         <v>1.55</v>
       </c>
       <c r="H10" s="16">
-        <f>IF(F10 = H$3,$E10*$G10,)</f>
+        <f t="shared" si="0"/>
         <v>12.4</v>
       </c>
       <c r="I10" s="9"/>
@@ -1297,11 +1309,11 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="11" spans="1:21" ht="19.95" customHeight="1">
       <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -1318,7 +1330,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="16">
-        <f>IF(F11 = H$3,$E11*$G11,)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I11" s="9"/>
@@ -1338,11 +1350,11 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="12" spans="1:21" ht="19.95" customHeight="1">
       <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -1359,7 +1371,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="16">
-        <f>IF(F12 = H$3,$E12*$G12,)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="I12" s="17"/>
@@ -1376,11 +1388,11 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:21" ht="19.95" customHeight="1">
       <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -1396,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="16">
-        <f>IF(F13 = H$3,$E13*$G13,)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="I13" s="17"/>
@@ -1415,11 +1427,11 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="14" spans="1:21" ht="19.95" customHeight="1">
       <c r="A14" s="11">
         <v>11</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -1435,10 +1447,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="16">
-        <f>IF(F14 = H$3,$E14*$G14,)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="27" t="s">
         <v>35</v>
       </c>
@@ -1454,11 +1466,11 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="15" spans="1:21" ht="19.95" customHeight="1">
       <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -1474,10 +1486,10 @@
         <v>15.8</v>
       </c>
       <c r="H15" s="16">
-        <f>IF(F15 = H$3,$E15*$G15,)</f>
+        <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
       <c r="L15" s="6"/>
@@ -1491,7 +1503,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="16" spans="1:21" ht="19.95" customHeight="1">
       <c r="A16" s="11">
         <v>13</v>
       </c>
@@ -1511,7 +1523,7 @@
         <v>68</v>
       </c>
       <c r="H16" s="16">
-        <f>IF(F16 = H$3,$E16*$G16,)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="9"/>
@@ -1530,11 +1542,11 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
     </row>
-    <row r="17" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="17" spans="1:21" ht="19.95" customHeight="1">
       <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -1550,7 +1562,7 @@
         <v>2.75</v>
       </c>
       <c r="H17" s="16">
-        <f>IF(F17 = H$3,$E17*$G17,)</f>
+        <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
       <c r="I17" s="9"/>
@@ -1567,11 +1579,11 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="18" spans="1:21" ht="19.95" customHeight="1">
       <c r="A18" s="11">
         <v>15</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -1587,7 +1599,7 @@
         <v>11.18</v>
       </c>
       <c r="H18" s="16">
-        <f>IF(F18 = H$3,$E18*$G18,)</f>
+        <f t="shared" si="0"/>
         <v>11.18</v>
       </c>
       <c r="I18" s="17"/>
@@ -1606,7 +1618,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="19" spans="1:21" ht="19.95" customHeight="1">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="16">
-        <f>IF(F19 = H$3,$E19*$G19,)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="17"/>
@@ -1644,11 +1656,11 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="20" spans="1:21" ht="19.95" customHeight="1">
       <c r="A20" s="11">
         <v>17</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -1665,10 +1677,10 @@
         <v>13.2</v>
       </c>
       <c r="H20" s="16">
-        <f>IF(F20 = H$3,$E20*$G20,)</f>
+        <f t="shared" si="0"/>
         <v>39.599999999999994</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
@@ -1682,11 +1694,11 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="1:21" ht="19.95" customHeight="1">
       <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -1703,7 +1715,7 @@
         <v>6.7</v>
       </c>
       <c r="H21" s="16">
-        <f>IF(F21 = H$3,$E21*$G21,)</f>
+        <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
       <c r="I21" s="9"/>
@@ -1720,11 +1732,11 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="1:21" ht="19.95" customHeight="1">
       <c r="A22" s="11">
         <v>19</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -1741,7 +1753,7 @@
         <v>25.65</v>
       </c>
       <c r="H22" s="16">
-        <f>IF(F22 = H$3,$E22*$G22,)</f>
+        <f t="shared" si="0"/>
         <v>25.65</v>
       </c>
       <c r="I22" s="9"/>
@@ -1758,11 +1770,11 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="23" spans="1:21" ht="19.95" customHeight="1">
       <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -1779,7 +1791,7 @@
         <v>10.56</v>
       </c>
       <c r="H23" s="16">
-        <f>IF(F23 = H$3,$E23*$G23,)</f>
+        <f t="shared" si="0"/>
         <v>10.56</v>
       </c>
       <c r="I23" s="9"/>
@@ -1796,16 +1808,16 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="24" spans="1:21" ht="19.95" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="23">
         <f>SUM(H4:H23)</f>
         <v>452.34</v>
@@ -1824,14 +1836,14 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="25" spans="1:21" ht="19.95" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="24">
         <f>H24*1.13</f>
         <v>511.1441999999999</v>
@@ -1850,7 +1862,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
     </row>
-    <row r="26" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="26" spans="1:21" ht="19.95" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1871,7 +1883,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
     </row>
-    <row r="27" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="27" spans="1:21" ht="19.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1894,7 +1906,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
     </row>
-    <row r="28" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="28" spans="1:21" ht="19.95" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1917,7 +1929,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
     </row>
-    <row r="29" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="29" spans="1:21" ht="19.95" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1940,7 +1952,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
     </row>
-    <row r="30" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="30" spans="1:21" ht="19.95" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1963,7 +1975,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
     </row>
-    <row r="31" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="31" spans="1:21" ht="19.95" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1986,7 +1998,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
     </row>
-    <row r="32" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="32" spans="1:21" ht="19.95" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2009,7 +2021,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
     </row>
-    <row r="33" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="33" spans="1:21" ht="19.95" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2032,7 +2044,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="34" spans="1:21" ht="19.95" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2055,7 +2067,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="35" spans="1:21" ht="19.95" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2078,7 +2090,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="36" spans="1:21" ht="19.95" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2101,7 +2113,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="37" spans="1:21" ht="19.95" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2124,7 +2136,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="38" spans="1:21" ht="19.95" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2147,7 +2159,7 @@
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
     </row>
-    <row r="39" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="39" spans="1:21" ht="19.95" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2170,7 +2182,7 @@
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
     </row>
-    <row r="40" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="40" spans="1:21" ht="19.95" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2193,7 +2205,7 @@
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
     </row>
-    <row r="41" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="41" spans="1:21" ht="19.95" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2216,7 +2228,7 @@
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
     </row>
-    <row r="42" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="42" spans="1:21" ht="19.95" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2239,7 +2251,7 @@
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
     </row>
-    <row r="43" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="43" spans="1:21" ht="19.95" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2262,7 +2274,7 @@
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
     </row>
-    <row r="44" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="44" spans="1:21" ht="19.95" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2285,7 +2297,7 @@
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
     </row>
-    <row r="45" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="45" spans="1:21" ht="19.95" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2308,7 +2320,7 @@
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
     </row>
-    <row r="46" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="46" spans="1:21" ht="19.95" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2331,7 +2343,7 @@
       <c r="T46" s="5"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="47" spans="1:21" ht="19.95" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2354,7 +2366,7 @@
       <c r="T47" s="5"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="48" spans="1:21" ht="19.95" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2377,7 +2389,7 @@
       <c r="T48" s="5"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="49" spans="1:21" ht="19.95" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2400,7 +2412,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="50" spans="1:21" ht="19.95" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2423,7 +2435,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="51" spans="1:21" ht="19.95" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2446,7 +2458,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="52" spans="1:21" ht="19.95" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2469,7 +2481,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:21" ht="19.899999999999999" customHeight="1">
+    <row r="53" spans="1:21" ht="19.95" customHeight="1">
       <c r="A53" s="6">
         <v>50</v>
       </c>
